--- a/modello_bancario_completo.xlsx
+++ b/modello_bancario_completo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescocarlesi/Downloads/Progetti Python/piano industriale excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3E830C-697C-4A49-9DC2-C43EE566CE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF41E46B-511D-FA48-A1A1-D83B1C0DCC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1276,7 +1276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/modello_bancario_completo.xlsx
+++ b/modello_bancario_completo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescocarlesi/Downloads/Progetti Python/piano industriale excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF41E46B-511D-FA48-A1A1-D83B1C0DCC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8A506-E19B-674C-98A7-5CF8B15573D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="250">
   <si>
     <t>ASSUMPTIONS - PARAMETRI DI INPUT</t>
   </si>
@@ -912,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -972,6 +972,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1277,7 +1280,7 @@
   <dimension ref="B2:I246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1331,7 +1334,6 @@
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1400,7 @@
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="25" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1624,7 +1626,6 @@
       <c r="G39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +1774,6 @@
       <c r="G49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
         <v>8</v>
       </c>
@@ -1972,8 +1972,8 @@
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>70</v>
+      <c r="C68" s="2">
+        <v>1</v>
       </c>
       <c r="D68" s="2">
         <f>C68+1</f>
@@ -3817,7 +3817,6 @@
       <c r="G146" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H146" s="2"/>
       <c r="I146" s="2" t="s">
         <v>8</v>
       </c>
@@ -3984,7 +3983,6 @@
       <c r="G155" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H155" s="2"/>
       <c r="I155" s="2" t="s">
         <v>8</v>
       </c>
@@ -4249,9 +4247,6 @@
       <c r="E172" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
       <c r="I172" s="2" t="s">
         <v>8</v>
       </c>
@@ -4595,7 +4590,6 @@
       <c r="G193" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H193" s="2"/>
       <c r="I193" s="2" t="s">
         <v>8</v>
       </c>
@@ -4852,7 +4846,6 @@
       <c r="G220" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H220" s="2"/>
       <c r="I220" s="2" t="s">
         <v>8</v>
       </c>
@@ -4927,7 +4920,6 @@
       <c r="G225" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H225" s="2"/>
       <c r="I225" s="2" t="s">
         <v>8</v>
       </c>
@@ -5030,7 +5022,6 @@
       <c r="G235" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H235" s="2"/>
       <c r="I235" s="2" t="s">
         <v>8</v>
       </c>
